--- a/biology/Médecine/Ostéodystrophie_rénale/Ostéodystrophie_rénale.xlsx
+++ b/biology/Médecine/Ostéodystrophie_rénale/Ostéodystrophie_rénale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ostéodystrophie rénale est une complication courante de l’insuffisance rénale, qui non traitée peut provoquer des douleurs osseuses en particulier au niveau du dos, des hanches, des jambes et des genoux. Les os atteints sont plus sensibles aux fractures. Son traitement précoce permet de limiter les douleurs et fractures.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Signes et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'ostéodystrophie rénale peut ne se manifester par aucun symptôme ; si elle en présente, il peut s'agir de :
 douleur osseuse
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il se fait généralement après qu'on a commencé un traitement pour une maladie rénale terminale.
 Les analyses de sang montrent une diminution des taux de calcium et de calcitriol et une augmentation du phosphate et de la parathormone.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Pathogénèse</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ostéodystrophie rénale est causée par un bas niveau de vitamine D, une hypocalcémie, une hyperparathyroïdie tertiaire avec hyperphosphatémie. L'excrétion rénale de phosphate est en effet diminuée du fait de l'insuffisance rénale.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il faut distinguer l'ostéodystrophie rénale d'autres maladies comme :
 l'ostéoporose
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le traitement pour l'ostéodystrophie rénale comprend :
 supplémentation en calcium et en vitamine D
@@ -664,7 +686,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ost%C3%A9odystrophie_r%C3%A9nale</t>
+          <t>Ostéodystrophie_rénale</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,7 +704,9 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La guérison de l'ostéodystrophie rénale a été observée après transplantation rénale. L'ostéodystrophie rénale est une maladie chronique qui entraîne un programme d'hémodialyse bien mis au point.
  Portail de la médecine                     </t>
